--- a/doc/Aufnahmen/Aufnahmebogen_Krater_1.xlsx
+++ b/doc/Aufnahmen/Aufnahmebogen_Krater_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\data\Aufnahmen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\Aufnahmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB6D5BB-A0EC-4E88-8D20-DC1500346FEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C776295-1D93-4E4D-9D9E-FE88CAF9C512}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
+    <workbookView xWindow="1140" yWindow="3915" windowWidth="18000" windowHeight="9360" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pürckhauer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Profil ID</t>
   </si>
@@ -66,83 +66,89 @@
 Schläge</t>
   </si>
   <si>
-    <t>K1P1</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>BV</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>K1P2</t>
-  </si>
-  <si>
-    <t>AH/CV</t>
-  </si>
-  <si>
-    <t>K1P3</t>
-  </si>
-  <si>
     <t>Leerprobe</t>
-  </si>
-  <si>
-    <t>K1P4</t>
   </si>
   <si>
     <t>Schluffig</t>
   </si>
   <si>
-    <t>K1P5</t>
-  </si>
-  <si>
-    <t>K1K1</t>
-  </si>
-  <si>
-    <t>kaum bewegung</t>
-  </si>
-  <si>
-    <t>K1K2</t>
-  </si>
-  <si>
-    <t>Von Gestein zurückgefedert</t>
-  </si>
-  <si>
     <t>Grundwasser</t>
   </si>
   <si>
-    <t>Von Gestein aufgefangen</t>
-  </si>
-  <si>
-    <t>K1K5</t>
-  </si>
-  <si>
-    <t>K1K3</t>
-  </si>
-  <si>
-    <t>K1K4</t>
-  </si>
-  <si>
-    <t>Auf Ausgangsgestein gestoßen</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Plot ID: K1
-N: 476639
-E: 5631926
+    <t>Plot ID: 112
+N: 476652
+E: 5631924
 Datum: 23.07.2019
 Aufgenommen durch:
 Schneider, Schwalb, Simon
-Maße des Kraters
-Länge:
-Breite:
-Tiefe:
 Bemerkungen:</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Bv</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>Ah/Cv</t>
+  </si>
+  <si>
+    <t>kaum 
+bewegung</t>
+  </si>
+  <si>
+    <t>Von Gestein 
+zurückgefedert</t>
+  </si>
+  <si>
+    <t>Auf Ausgangsgestein 
+gestoßen</t>
+  </si>
+  <si>
+    <t>Von Gestein 
+aufgefangen</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -584,6 +590,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -611,8 +621,8 @@
       <xdr:rowOff>36978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>521354</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>573309</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>84603</xdr:rowOff>
     </xdr:to>
@@ -952,14 +962,14 @@
   </sheetPr>
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -970,14 +980,16 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1676,7 +1688,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1758,11 +1770,11 @@
       <c r="T35" s="41"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>11</v>
+      <c r="A36" s="54" t="s">
+        <v>15</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
         <v>7</v>
@@ -1785,11 +1797,11 @@
       <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>11</v>
+      <c r="A37" s="54" t="s">
+        <v>16</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -1812,11 +1824,11 @@
       <c r="T37" s="41"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>11</v>
+      <c r="A38" s="54" t="s">
+        <v>17</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2">
         <v>18</v>
@@ -1839,11 +1851,11 @@
       <c r="T38" s="41"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>15</v>
+      <c r="A39" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -1866,11 +1878,11 @@
       <c r="T39" s="41"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>15</v>
+      <c r="A40" s="54" t="s">
+        <v>19</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2">
         <v>13</v>
@@ -1893,11 +1905,11 @@
       <c r="T40" s="41"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>15</v>
+      <c r="A41" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2">
         <v>45</v>
@@ -1920,15 +1932,17 @@
       <c r="T41" s="41"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>17</v>
+      <c r="A42" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>70</v>
+      </c>
       <c r="D42" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
@@ -1947,11 +1961,11 @@
       <c r="T42" s="41"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>19</v>
+      <c r="A43" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1974,11 +1988,11 @@
       <c r="T43" s="41"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>19</v>
+      <c r="A44" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>
@@ -2001,17 +2015,17 @@
       <c r="T44" s="41"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>19</v>
+      <c r="A45" s="54" t="s">
+        <v>24</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
         <v>89</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -2030,11 +2044,11 @@
       <c r="T45" s="41"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>21</v>
+      <c r="A46" s="54" t="s">
+        <v>25</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -2057,17 +2071,17 @@
       <c r="T46" s="41"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>21</v>
+      <c r="A47" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
         <v>60</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="40"/>
@@ -2512,37 +2526,37 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>22</v>
+      <c r="B69" s="1">
+        <v>1</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>24</v>
+      <c r="E69" s="1">
+        <v>2</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="1"/>
       <c r="H69" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>29</v>
+      <c r="I69" s="1">
+        <v>3</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L69" t="s">
-        <v>30</v>
+      <c r="L69">
+        <v>4</v>
       </c>
       <c r="M69" s="8"/>
       <c r="O69" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>28</v>
+      <c r="P69" s="1">
+        <v>5</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="1" t="s">
@@ -2865,13 +2879,13 @@
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>70</v>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="2" t="s">
-        <v>23</v>
+      <c r="C77" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="D77" s="19">
         <v>70</v>
@@ -3091,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="R82" s="19">
         <v>120</v>
@@ -3124,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O83" s="19">
         <v>130</v>
@@ -3215,7 +3229,7 @@
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>160</v>
       </c>
@@ -3232,8 +3246,8 @@
       <c r="I86" s="13">
         <v>53</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>25</v>
+      <c r="J86" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="K86" s="19">
         <v>160</v>
@@ -3248,8 +3262,8 @@
       <c r="P86" s="13">
         <v>17</v>
       </c>
-      <c r="Q86" s="2" t="s">
-        <v>27</v>
+      <c r="Q86" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="R86" s="19">
         <v>160</v>
@@ -3529,7 +3543,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>250</v>
       </c>
@@ -3551,8 +3565,8 @@
       <c r="L95" s="13">
         <v>64</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>31</v>
+      <c r="M95" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="O95" s="19">
         <v>250</v>
